--- a/data/cleaned.xlsx
+++ b/data/cleaned.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L62"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,38 +503,38 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HI</t>
+          <t>WATER_LIMITED</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>40.55127894226961</v>
+        <v>25.48746811962097</v>
       </c>
       <c r="D2" t="n">
-        <v>13.72225469174885</v>
+        <v>9.601568570558639</v>
       </c>
       <c r="E2" t="n">
-        <v>27.13676681700924</v>
+        <v>17.54451834508981</v>
       </c>
       <c r="F2" t="n">
-        <v>50.09936461175464</v>
+        <v>34.41492870400904</v>
       </c>
       <c r="G2" t="n">
-        <v>70.51141625990475</v>
+        <v>72.28009406271849</v>
       </c>
       <c r="H2" t="n">
-        <v>81.20016044544325</v>
+        <v>83.28051896583071</v>
       </c>
       <c r="I2" t="n">
-        <v>57.51732280016967</v>
+        <v>58.36720961640707</v>
       </c>
       <c r="J2" t="n">
-        <v>697.0606335889879</v>
+        <v>262.34078177482</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8471422294290168</v>
+        <v>0.9077975922785818</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4321328765155919</v>
+        <v>0.4279110150045106</v>
       </c>
     </row>
     <row r="3">
@@ -545,38 +545,38 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>LI</t>
+          <t>WELL_WATERED</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>46.14204204810375</v>
+        <v>26.86021229935475</v>
       </c>
       <c r="D3" t="n">
-        <v>15.01065493564504</v>
+        <v>7.023673619979133</v>
       </c>
       <c r="E3" t="n">
-        <v>30.5763484918744</v>
+        <v>16.94194295966694</v>
       </c>
       <c r="F3" t="n">
-        <v>52.32949696289619</v>
+        <v>33.16464072357819</v>
       </c>
       <c r="G3" t="n">
-        <v>75.79696973210913</v>
+        <v>74.43430626767595</v>
       </c>
       <c r="H3" t="n">
-        <v>83.4721856878128</v>
+        <v>83.89023969951272</v>
       </c>
       <c r="I3" t="n">
-        <v>66.86793363034349</v>
+        <v>62.96023554107389</v>
       </c>
       <c r="J3" t="n">
-        <v>1097.7436529934</v>
+        <v>204.2856102921059</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8524871862144939</v>
+        <v>0.7720127878840561</v>
       </c>
       <c r="L3" t="n">
-        <v>0.401211777471969</v>
+        <v>0.4011394391834234</v>
       </c>
     </row>
     <row r="4">
@@ -587,38 +587,38 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HI</t>
+          <t>WATER_LIMITED</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>33.90994722641305</v>
+        <v>27.00707999354185</v>
       </c>
       <c r="D4" t="n">
-        <v>11.79131731067491</v>
+        <v>9.30297247737434</v>
       </c>
       <c r="E4" t="n">
-        <v>22.85063226854397</v>
+        <v>18.1550262354581</v>
       </c>
       <c r="F4" t="n">
-        <v>42.42481785095429</v>
+        <v>36.1606794822561</v>
       </c>
       <c r="G4" t="n">
-        <v>67.49002320976484</v>
+        <v>71.80187515471252</v>
       </c>
       <c r="H4" t="n">
-        <v>77.96821150141929</v>
+        <v>75.26329303169474</v>
       </c>
       <c r="I4" t="n">
-        <v>54.7352776712186</v>
+        <v>66.33119081810118</v>
       </c>
       <c r="J4" t="n">
-        <v>386.0201456927738</v>
+        <v>300.8054180308457</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8164957233448018</v>
+        <v>0.873307501880674</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4024071781735524</v>
+        <v>0.4011353452993978</v>
       </c>
     </row>
     <row r="5">
@@ -629,38 +629,38 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LI</t>
+          <t>WELL_WATERED</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>35.14930538345592</v>
+        <v>27.18838090669668</v>
       </c>
       <c r="D5" t="n">
-        <v>11.55482291634947</v>
+        <v>9.422019336436705</v>
       </c>
       <c r="E5" t="n">
-        <v>23.35206414990269</v>
+        <v>18.30520012156669</v>
       </c>
       <c r="F5" t="n">
-        <v>40.14563535400949</v>
+        <v>32.623863119055</v>
       </c>
       <c r="G5" t="n">
-        <v>74.76957526840074</v>
+        <v>66.69192375705988</v>
       </c>
       <c r="H5" t="n">
-        <v>84.14864677973546</v>
+        <v>79.36005975759649</v>
       </c>
       <c r="I5" t="n">
-        <v>65.74454938146343</v>
+        <v>51.27215327362888</v>
       </c>
       <c r="J5" t="n">
-        <v>416.5691754869173</v>
+        <v>315.6831364085572</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8918245798531457</v>
+        <v>0.8584518816833726</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4091929730046473</v>
+        <v>0.4270302024424923</v>
       </c>
     </row>
     <row r="6">
@@ -671,38 +671,38 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>HI</t>
+          <t>WATER_LIMITED</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>34.09214335827554</v>
+        <v>26.91824997512736</v>
       </c>
       <c r="D6" t="n">
-        <v>12.02251435333616</v>
+        <v>9.267793677727484</v>
       </c>
       <c r="E6" t="n">
-        <v>23.05732885580585</v>
+        <v>18.09302182642742</v>
       </c>
       <c r="F6" t="n">
-        <v>44.81492389841665</v>
+        <v>31.50194095201881</v>
       </c>
       <c r="G6" t="n">
-        <v>71.9825310381019</v>
+        <v>70.45613097454032</v>
       </c>
       <c r="H6" t="n">
-        <v>83.89470284650344</v>
+        <v>81.7212147362202</v>
       </c>
       <c r="I6" t="n">
-        <v>57.60940959007585</v>
+        <v>57.33906068256514</v>
       </c>
       <c r="J6" t="n">
-        <v>457.2504002981182</v>
+        <v>228.3603298886945</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8886321268531029</v>
+        <v>0.8287303971401961</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4246571895696546</v>
+        <v>0.399901651755884</v>
       </c>
     </row>
     <row r="7">
@@ -713,38 +713,38 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>LI</t>
+          <t>WELL_WATERED</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>31.70032024359801</v>
+        <v>24.79376615792686</v>
       </c>
       <c r="D7" t="n">
-        <v>11.60365256753111</v>
+        <v>8.200320612754892</v>
       </c>
       <c r="E7" t="n">
-        <v>21.65198640556455</v>
+        <v>16.49704338534088</v>
       </c>
       <c r="F7" t="n">
-        <v>46.85247801775782</v>
+        <v>34.39920486575457</v>
       </c>
       <c r="G7" t="n">
-        <v>74.28700727828517</v>
+        <v>73.03483313584279</v>
       </c>
       <c r="H7" t="n">
-        <v>80.43669358246326</v>
+        <v>84.32864042196987</v>
       </c>
       <c r="I7" t="n">
-        <v>67.28885616519862</v>
+        <v>63.85094187233747</v>
       </c>
       <c r="J7" t="n">
-        <v>468.7724381121707</v>
+        <v>186.5902471550296</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8933955145416727</v>
+        <v>0.7720127878840561</v>
       </c>
       <c r="L7" t="n">
-        <v>0.4036890177830822</v>
+        <v>0.4115250248172393</v>
       </c>
     </row>
     <row r="8">
@@ -755,38 +755,38 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HI</t>
+          <t>WATER_LIMITED</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>35.87098300206897</v>
+        <v>28.36491989514619</v>
       </c>
       <c r="D8" t="n">
-        <v>13.43914001921401</v>
+        <v>9.343276195988947</v>
       </c>
       <c r="E8" t="n">
-        <v>24.65506151064149</v>
+        <v>18.85409804556758</v>
       </c>
       <c r="F8" t="n">
-        <v>44.30611337647087</v>
+        <v>33.91402226077396</v>
       </c>
       <c r="G8" t="n">
-        <v>74.34522363654676</v>
+        <v>76.72237502380175</v>
       </c>
       <c r="H8" t="n">
-        <v>85.27006841296711</v>
+        <v>84.94405844893542</v>
       </c>
       <c r="I8" t="n">
-        <v>59.76179136555953</v>
+        <v>64.1675577753924</v>
       </c>
       <c r="J8" t="n">
-        <v>716.4276247980467</v>
+        <v>264.0968499707221</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8972669674224553</v>
+        <v>0.8956647113783195</v>
       </c>
       <c r="L8" t="n">
-        <v>0.4536773275107244</v>
+        <v>0.3880178238000201</v>
       </c>
     </row>
     <row r="9">
@@ -797,2264 +797,1340 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>LI</t>
+          <t>WELL_WATERED</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>37.8108325995061</v>
+        <v>26.04153155908574</v>
       </c>
       <c r="D9" t="n">
-        <v>11.35822263772767</v>
+        <v>8.442005062604556</v>
       </c>
       <c r="E9" t="n">
-        <v>24.58452761861689</v>
+        <v>17.24176831084514</v>
       </c>
       <c r="F9" t="n">
-        <v>43.71530751282009</v>
+        <v>36.11132747383515</v>
       </c>
       <c r="G9" t="n">
-        <v>71.70091400171043</v>
+        <v>73.6996566004681</v>
       </c>
       <c r="H9" t="n">
-        <v>79.08979055433743</v>
+        <v>84.13571766980704</v>
       </c>
       <c r="I9" t="n">
-        <v>62.78932761737634</v>
+        <v>65.55094264705777</v>
       </c>
       <c r="J9" t="n">
-        <v>603.8940620866632</v>
+        <v>249.5308174088048</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8677483999929674</v>
+        <v>0.8714552311017578</v>
       </c>
       <c r="L9" t="n">
-        <v>0.4314460716293005</v>
+        <v>0.4107849873133647</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Ajabsido</t>
+          <t>B4R (BTx406/Rio)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>HI</t>
+          <t>WATER_LIMITED</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>45.0013357684182</v>
+        <v>27.65808500334195</v>
       </c>
       <c r="D10" t="n">
-        <v>16.5129492967488</v>
+        <v>9.814444955421017</v>
       </c>
       <c r="E10" t="n">
-        <v>30.7571425325835</v>
+        <v>18.73626497938148</v>
       </c>
       <c r="F10" t="n">
-        <v>51.65650690458172</v>
+        <v>35.4323642457333</v>
       </c>
       <c r="G10" t="n">
-        <v>68.34579729115049</v>
+        <v>71.68092673584609</v>
       </c>
       <c r="H10" t="n">
-        <v>80.83586453243619</v>
+        <v>86.76223885138008</v>
       </c>
       <c r="I10" t="n">
-        <v>53.65842098095235</v>
+        <v>51.91872509523008</v>
       </c>
       <c r="J10" t="n">
-        <v>956.3751189865948</v>
+        <v>356.7842661374557</v>
       </c>
       <c r="K10" t="n">
-        <v>0.7951265391599476</v>
+        <v>0.9075653677695769</v>
       </c>
       <c r="L10" t="n">
-        <v>0.4098688086005886</v>
+        <v>0.4381215506589884</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ajabsido</t>
+          <t>B4R (BTx406/Rio)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>LI</t>
+          <t>WELL_WATERED</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>44.93821347260917</v>
+        <v>24.83775079194016</v>
       </c>
       <c r="D11" t="n">
-        <v>15.52088960832076</v>
+        <v>9.921344795291304</v>
       </c>
       <c r="E11" t="n">
-        <v>30.22955154046497</v>
+        <v>17.37954779361574</v>
       </c>
       <c r="F11" t="n">
-        <v>43.9258744066871</v>
+        <v>33.13650173118072</v>
       </c>
       <c r="G11" t="n">
-        <v>68.93458325988099</v>
+        <v>65.1031410596276</v>
       </c>
       <c r="H11" t="n">
-        <v>76.13344549352979</v>
+        <v>75.33605525191717</v>
       </c>
       <c r="I11" t="n">
-        <v>61.29909946909427</v>
+        <v>53.41530725456833</v>
       </c>
       <c r="J11" t="n">
-        <v>815.4281004247182</v>
+        <v>294.0278157841645</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8337026985660568</v>
+        <v>0.8907013026678433</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3952143957153774</v>
+        <v>0.4419609044388819</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>B4R (BTx406/Rio)</t>
+          <t>BTx615</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>HI</t>
+          <t>WATER_LIMITED</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>39.25246086777088</v>
+        <v>25.14478967737453</v>
       </c>
       <c r="D12" t="n">
-        <v>13.05416146905549</v>
+        <v>9.324661053499467</v>
       </c>
       <c r="E12" t="n">
-        <v>26.15331116841319</v>
+        <v>17.234725365437</v>
       </c>
       <c r="F12" t="n">
-        <v>45.89337953488563</v>
+        <v>33.81947180609644</v>
       </c>
       <c r="G12" t="n">
-        <v>73.22250528394449</v>
+        <v>67.26390456298348</v>
       </c>
       <c r="H12" t="n">
-        <v>84.31229199357814</v>
+        <v>82.0847494643383</v>
       </c>
       <c r="I12" t="n">
-        <v>56.28803938292307</v>
+        <v>52.28056551894664</v>
       </c>
       <c r="J12" t="n">
-        <v>495.2920564546209</v>
+        <v>279.1268799009002</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8613760280104774</v>
+        <v>0.9076536644015052</v>
       </c>
       <c r="L12" t="n">
-        <v>0.4312400475637643</v>
+        <v>0.4457404823430307</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>B4R (BTx406/Rio)</t>
+          <t>BTx623</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>LI</t>
+          <t>WATER_LIMITED</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>33.83797240114264</v>
+        <v>28.51829399609267</v>
       </c>
       <c r="D13" t="n">
-        <v>10.97871895363725</v>
+        <v>8.832385572731331</v>
       </c>
       <c r="E13" t="n">
-        <v>22.40834567738995</v>
+        <v>18.675339784412</v>
       </c>
       <c r="F13" t="n">
-        <v>50.43139831378809</v>
+        <v>34.4634867423829</v>
       </c>
       <c r="G13" t="n">
-        <v>78.16158759323896</v>
+        <v>69.80122736989743</v>
       </c>
       <c r="H13" t="n">
-        <v>84.93766617031764</v>
+        <v>81.71544092668593</v>
       </c>
       <c r="I13" t="n">
-        <v>69.30632536684193</v>
+        <v>50.38417399487296</v>
       </c>
       <c r="J13" t="n">
-        <v>598.2438315162416</v>
+        <v>282.9186040505294</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8932379600628969</v>
+        <v>0.886081389139293</v>
       </c>
       <c r="L13" t="n">
-        <v>0.4171146349978874</v>
+        <v>0.4167799188638499</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BTx615</t>
+          <t>BTx623</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>HI</t>
+          <t>WELL_WATERED</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>44.46529538661701</v>
+        <v>28.6750460807836</v>
       </c>
       <c r="D14" t="n">
-        <v>15.09286106427979</v>
+        <v>10.77237983378918</v>
       </c>
       <c r="E14" t="n">
-        <v>29.7790782254484</v>
+        <v>19.72371295728639</v>
       </c>
       <c r="F14" t="n">
-        <v>45.70788917225978</v>
+        <v>38.24181143346488</v>
       </c>
       <c r="G14" t="n">
-        <v>67.57231462086298</v>
+        <v>73.17407133818818</v>
       </c>
       <c r="H14" t="n">
-        <v>80.55758338549641</v>
+        <v>80.11542189724707</v>
       </c>
       <c r="I14" t="n">
-        <v>51.61539045701976</v>
+        <v>62.4901212089955</v>
       </c>
       <c r="J14" t="n">
-        <v>786.6460840093938</v>
+        <v>361.7654992918216</v>
       </c>
       <c r="K14" t="n">
-        <v>0.8365696615651798</v>
+        <v>0.8829036202424483</v>
       </c>
       <c r="L14" t="n">
-        <v>0.4330363235929173</v>
+        <v>0.4171200202275582</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BTx615</t>
+          <t>BTx623 (DW1)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>LI</t>
+          <t>WATER_LIMITED</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>44.69631505514199</v>
+        <v>29.56491565514747</v>
       </c>
       <c r="D15" t="n">
-        <v>16.23668344855018</v>
+        <v>11.39817392478186</v>
       </c>
       <c r="E15" t="n">
-        <v>30.46649925184609</v>
+        <v>20.48154478996465</v>
       </c>
       <c r="F15" t="n">
-        <v>43.63603907494981</v>
+        <v>34.08586135026918</v>
       </c>
       <c r="G15" t="n">
-        <v>65.86868498570836</v>
+        <v>60.96945360048959</v>
       </c>
       <c r="H15" t="n">
-        <v>76.6843213095011</v>
+        <v>77.81230109232935</v>
       </c>
       <c r="I15" t="n">
-        <v>51.90681442193338</v>
+        <v>44.73030804001328</v>
       </c>
       <c r="J15" t="n">
-        <v>909.350461367413</v>
+        <v>361.4115981681434</v>
       </c>
       <c r="K15" t="n">
-        <v>0.8311626701188235</v>
+        <v>0.8457652989395088</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3906048107825665</v>
+        <v>0.4367417739671985</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BTx623</t>
+          <t>BTx623 (DW1)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>HI</t>
+          <t>WELL_WATERED</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>47.57088601963009</v>
+        <v>26.11930350422302</v>
       </c>
       <c r="D16" t="n">
-        <v>17.95966257097254</v>
+        <v>9.407924607813138</v>
       </c>
       <c r="E16" t="n">
-        <v>32.76527429530132</v>
+        <v>17.76361405601807</v>
       </c>
       <c r="F16" t="n">
-        <v>50.29546401196723</v>
+        <v>32.64906300843587</v>
       </c>
       <c r="G16" t="n">
-        <v>73.4367250923514</v>
+        <v>73.40525204179561</v>
       </c>
       <c r="H16" t="n">
-        <v>78.83273758063599</v>
+        <v>84.26747199771586</v>
       </c>
       <c r="I16" t="n">
-        <v>65.94138555446001</v>
+        <v>64.39803412877281</v>
       </c>
       <c r="J16" t="n">
-        <v>1117.564014664352</v>
+        <v>260.30334636246</v>
       </c>
       <c r="K16" t="n">
-        <v>0.9120671939433316</v>
+        <v>0.9159780030805178</v>
       </c>
       <c r="L16" t="n">
-        <v>0.4182638781981396</v>
+        <v>0.410695978634363</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BTx623</t>
+          <t>BTx642</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>LI</t>
+          <t>WATER_LIMITED</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>44.35920456436502</v>
+        <v>32.87429820080916</v>
       </c>
       <c r="D17" t="n">
-        <v>14.95338953338828</v>
+        <v>11.00495148966978</v>
       </c>
       <c r="E17" t="n">
-        <v>29.65629704887665</v>
+        <v>21.93962484523947</v>
       </c>
       <c r="F17" t="n">
-        <v>49.01115659663296</v>
+        <v>36.6874887735809</v>
       </c>
       <c r="G17" t="n">
-        <v>71.66331035340663</v>
+        <v>65.5428840212402</v>
       </c>
       <c r="H17" t="n">
-        <v>79.67983053196421</v>
+        <v>77.8048889845528</v>
       </c>
       <c r="I17" t="n">
-        <v>62.3799659942697</v>
+        <v>51.01494916555485</v>
       </c>
       <c r="J17" t="n">
-        <v>841.5666566748837</v>
+        <v>404.7816069510398</v>
       </c>
       <c r="K17" t="n">
-        <v>0.8563041259689773</v>
+        <v>0.9159785102867829</v>
       </c>
       <c r="L17" t="n">
-        <v>0.4129192535229586</v>
+        <v>0.4194153103641303</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BTx623 (DW1)</t>
+          <t>BTx642</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>HI</t>
+          <t>WELL_WATERED</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>38.05928268274911</v>
+        <v>24.24227595157367</v>
       </c>
       <c r="D18" t="n">
-        <v>13.69016365999602</v>
+        <v>7.88017001092093</v>
       </c>
       <c r="E18" t="n">
-        <v>25.87472317137257</v>
+        <v>16.06122298124731</v>
       </c>
       <c r="F18" t="n">
-        <v>47.66829799936706</v>
+        <v>31.19194406427001</v>
       </c>
       <c r="G18" t="n">
-        <v>75.972495458816</v>
+        <v>65.40526131094339</v>
       </c>
       <c r="H18" t="n">
-        <v>83.63967977193005</v>
+        <v>79.56265043166906</v>
       </c>
       <c r="I18" t="n">
-        <v>66.01643688327609</v>
+        <v>54.0837561451378</v>
       </c>
       <c r="J18" t="n">
-        <v>532.951055148975</v>
+        <v>209.7152714701473</v>
       </c>
       <c r="K18" t="n">
-        <v>0.8747523240358934</v>
+        <v>0.8386146645254529</v>
       </c>
       <c r="L18" t="n">
-        <v>0.4285627567007042</v>
+        <v>0.3804253990700798</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BTx623 (DW1)</t>
+          <t>BTx642/Tx7000 NILStg1</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>LI</t>
+          <t>WATER_LIMITED</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>29.94286988623798</v>
+        <v>27.28381120632356</v>
       </c>
       <c r="D19" t="n">
-        <v>10.26058947248307</v>
+        <v>9.895608899152158</v>
       </c>
       <c r="E19" t="n">
-        <v>20.10172967936052</v>
+        <v>18.58971005273786</v>
       </c>
       <c r="F19" t="n">
-        <v>43.24032079249576</v>
+        <v>35.24821118509542</v>
       </c>
       <c r="G19" t="n">
-        <v>78.05902987621899</v>
+        <v>70.96878737494235</v>
       </c>
       <c r="H19" t="n">
-        <v>84.58627443683024</v>
+        <v>79.9354891297869</v>
       </c>
       <c r="I19" t="n">
-        <v>70.93459249114143</v>
+        <v>62.83528149087446</v>
       </c>
       <c r="J19" t="n">
-        <v>306.1864632824519</v>
+        <v>278.251763376149</v>
       </c>
       <c r="K19" t="n">
-        <v>0.8781366309164351</v>
+        <v>0.8701318248512763</v>
       </c>
       <c r="L19" t="n">
-        <v>0.4255240731072266</v>
+        <v>0.4134815747342293</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BTx623 Stg5 NIL</t>
+          <t>BTx642/Tx7000 NILStg1</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>HI</t>
+          <t>WELL_WATERED</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>41.98828568763035</v>
+        <v>26.41374329628326</v>
       </c>
       <c r="D20" t="n">
-        <v>13.83313102353291</v>
+        <v>9.219008294108498</v>
       </c>
       <c r="E20" t="n">
-        <v>27.91070835558163</v>
+        <v>17.81637579519588</v>
       </c>
       <c r="F20" t="n">
-        <v>44.88605048851304</v>
+        <v>33.80908537111047</v>
       </c>
       <c r="G20" t="n">
-        <v>71.35609175285025</v>
+        <v>70.7683200334328</v>
       </c>
       <c r="H20" t="n">
-        <v>80.6845918537207</v>
+        <v>84.25794833096212</v>
       </c>
       <c r="I20" t="n">
-        <v>62.42352099024663</v>
+        <v>56.9739820066772</v>
       </c>
       <c r="J20" t="n">
-        <v>751.897157783985</v>
+        <v>273.8022559981715</v>
       </c>
       <c r="K20" t="n">
-        <v>0.901770500340719</v>
+        <v>0.879073796337229</v>
       </c>
       <c r="L20" t="n">
-        <v>0.4435835061180458</v>
+        <v>0.4119504898006868</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BTx623 Stg5 NIL</t>
+          <t>Macia</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>LI</t>
+          <t>WATER_LIMITED</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>43.01821404100522</v>
+        <v>28.22689665997598</v>
       </c>
       <c r="D21" t="n">
-        <v>15.08244511518586</v>
+        <v>9.932396508504587</v>
       </c>
       <c r="E21" t="n">
-        <v>29.05032957809554</v>
+        <v>19.07964658424028</v>
       </c>
       <c r="F21" t="n">
-        <v>50.26636560582451</v>
+        <v>36.1727202592978</v>
       </c>
       <c r="G21" t="n">
-        <v>71.92293927375438</v>
+        <v>70.29562721885826</v>
       </c>
       <c r="H21" t="n">
-        <v>79.43951455607595</v>
+        <v>79.20556691144105</v>
       </c>
       <c r="I21" t="n">
-        <v>63.02797734571891</v>
+        <v>56.55428353618407</v>
       </c>
       <c r="J21" t="n">
-        <v>965.3356506326523</v>
+        <v>366.8985555321063</v>
       </c>
       <c r="K21" t="n">
-        <v>0.8906433257400681</v>
+        <v>0.9291339208288497</v>
       </c>
       <c r="L21" t="n">
-        <v>0.3995813020407334</v>
+        <v>0.4300844707777096</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BTx642</t>
+          <t>Macia</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>HI</t>
+          <t>WELL_WATERED</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>52.34971815681046</v>
+        <v>25.82487616734552</v>
       </c>
       <c r="D22" t="n">
-        <v>18.31586973498139</v>
+        <v>8.371388181872447</v>
       </c>
       <c r="E22" t="n">
-        <v>35.33279394589593</v>
+        <v>17.09813217460898</v>
       </c>
       <c r="F22" t="n">
-        <v>53.5561283578451</v>
+        <v>35.20895218095943</v>
       </c>
       <c r="G22" t="n">
-        <v>62.84648304887461</v>
+        <v>73.46179176965295</v>
       </c>
       <c r="H22" t="n">
-        <v>77.96133404411178</v>
+        <v>82.94720534958252</v>
       </c>
       <c r="I22" t="n">
-        <v>47.5946324645334</v>
+        <v>62.44497067392374</v>
       </c>
       <c r="J22" t="n">
-        <v>1382.356386120811</v>
+        <v>272.0865804392687</v>
       </c>
       <c r="K22" t="n">
-        <v>0.851318331413689</v>
+        <v>0.8641422405903404</v>
       </c>
       <c r="L22" t="n">
-        <v>0.4296197082968845</v>
+        <v>0.4018242694946615</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BTx642</t>
+          <t>P898012</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>LI</t>
+          <t>WATER_LIMITED</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>46.26533895373827</v>
+        <v>30.2263734508509</v>
       </c>
       <c r="D23" t="n">
-        <v>13.84408324012918</v>
+        <v>10.89917225152838</v>
       </c>
       <c r="E23" t="n">
-        <v>30.05471109693373</v>
+        <v>20.56277285118964</v>
       </c>
       <c r="F23" t="n">
-        <v>49.27781429955889</v>
+        <v>35.8370810696852</v>
       </c>
       <c r="G23" t="n">
-        <v>65.52275327192156</v>
+        <v>70.64923416075023</v>
       </c>
       <c r="H23" t="n">
-        <v>76.59299910786872</v>
+        <v>84.8421048881272</v>
       </c>
       <c r="I23" t="n">
-        <v>49.03533863785953</v>
+        <v>55.77918615912654</v>
       </c>
       <c r="J23" t="n">
-        <v>818.1631086503207</v>
+        <v>342.0588615640838</v>
       </c>
       <c r="K23" t="n">
-        <v>0.850826998093682</v>
+        <v>0.8911270784059906</v>
       </c>
       <c r="L23" t="n">
-        <v>0.3989405199735463</v>
+        <v>0.4073034113515484</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BTx642/Tx7000 NILStg1</t>
+          <t>P898012</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>HI</t>
+          <t>WELL_WATERED</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>34.58904530423128</v>
+        <v>25.86909247544873</v>
       </c>
       <c r="D24" t="n">
-        <v>11.18012202945155</v>
+        <v>9.101628424976909</v>
       </c>
       <c r="E24" t="n">
-        <v>22.88458366684142</v>
+        <v>17.48536045021282</v>
       </c>
       <c r="F24" t="n">
-        <v>45.26224466785779</v>
+        <v>35.07343272944001</v>
       </c>
       <c r="G24" t="n">
-        <v>74.57690072454623</v>
+        <v>73.6980206374979</v>
       </c>
       <c r="H24" t="n">
-        <v>83.34858011420469</v>
+        <v>82.49517599787066</v>
       </c>
       <c r="I24" t="n">
-        <v>61.44951190141202</v>
+        <v>64.68405082583456</v>
       </c>
       <c r="J24" t="n">
-        <v>467.2035416842588</v>
+        <v>231.1435627378326</v>
       </c>
       <c r="K24" t="n">
-        <v>0.9051112218310808</v>
+        <v>0.8475643404552073</v>
       </c>
       <c r="L24" t="n">
-        <v>0.4110223438658935</v>
+        <v>0.372003393116158</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BTx642/Tx7000 NILStg1</t>
+          <t>RLBK1</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>LI</t>
+          <t>WATER_LIMITED</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>25.56303896212643</v>
+        <v>29.84354874585476</v>
       </c>
       <c r="D25" t="n">
-        <v>8.420618981490891</v>
+        <v>10.82823032040764</v>
       </c>
       <c r="E25" t="n">
-        <v>16.99035890682917</v>
+        <v>20.3358895331312</v>
       </c>
       <c r="F25" t="n">
-        <v>35.3657350324404</v>
+        <v>39.35117518425803</v>
       </c>
       <c r="G25" t="n">
-        <v>71.80669081867813</v>
+        <v>67.27022295478474</v>
       </c>
       <c r="H25" t="n">
-        <v>80.34324234024969</v>
+        <v>75.14717323811236</v>
       </c>
       <c r="I25" t="n">
-        <v>62.88847087550073</v>
+        <v>56.83852027171292</v>
       </c>
       <c r="J25" t="n">
-        <v>217.6693433229092</v>
+        <v>340.2741390847123</v>
       </c>
       <c r="K25" t="n">
-        <v>0.9075256511210329</v>
+        <v>0.8565739952053929</v>
       </c>
       <c r="L25" t="n">
-        <v>0.4115132161262867</v>
+        <v>0.3836965309033936</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>IRAT 204</t>
+          <t>RLBK1</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>HI</t>
+          <t>WELL_WATERED</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>47.87942516634369</v>
+        <v>30.00947370011117</v>
       </c>
       <c r="D26" t="n">
-        <v>17.69962352485929</v>
+        <v>9.280039350344902</v>
       </c>
       <c r="E26" t="n">
-        <v>32.78952434560149</v>
+        <v>19.64475652522803</v>
       </c>
       <c r="F26" t="n">
-        <v>54.09941361439365</v>
+        <v>32.84250946451237</v>
       </c>
       <c r="G26" t="n">
-        <v>72.49919500737091</v>
+        <v>70.42019548490036</v>
       </c>
       <c r="H26" t="n">
-        <v>80.89427492124308</v>
+        <v>79.660075080987</v>
       </c>
       <c r="I26" t="n">
-        <v>64.11737895423897</v>
+        <v>61.60339898153171</v>
       </c>
       <c r="J26" t="n">
-        <v>1285.259488633714</v>
+        <v>260.7122670498756</v>
       </c>
       <c r="K26" t="n">
-        <v>0.8511764291002654</v>
+        <v>0.8453101391661638</v>
       </c>
       <c r="L26" t="n">
-        <v>0.3919919320217267</v>
+        <v>0.3818318397036393</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>IRAT 204</t>
+          <t>RTx430</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>LI</t>
+          <t>WATER_LIMITED</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>52.80520424679194</v>
+        <v>27.43006064289222</v>
       </c>
       <c r="D27" t="n">
-        <v>18.86577448375674</v>
+        <v>10.51213209773772</v>
       </c>
       <c r="E27" t="n">
-        <v>35.83548936527434</v>
+        <v>18.97109637031497</v>
       </c>
       <c r="F27" t="n">
-        <v>52.48770014249711</v>
+        <v>34.53945462254038</v>
       </c>
       <c r="G27" t="n">
-        <v>72.74569198070834</v>
+        <v>72.85427760429572</v>
       </c>
       <c r="H27" t="n">
-        <v>81.80019983429192</v>
+        <v>82.94077808075683</v>
       </c>
       <c r="I27" t="n">
-        <v>62.82246363466331</v>
+        <v>57.16698389473495</v>
       </c>
       <c r="J27" t="n">
-        <v>1522.186415315889</v>
+        <v>265.9614656341402</v>
       </c>
       <c r="K27" t="n">
-        <v>0.8767250800191206</v>
+        <v>0.8282900641321304</v>
       </c>
       <c r="L27" t="n">
-        <v>0.4104606484120896</v>
+        <v>0.4219628618088417</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Macia</t>
+          <t>RTx430</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>HI</t>
+          <t>WELL_WATERED</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>47.97107834112455</v>
+        <v>20.41666696228491</v>
       </c>
       <c r="D28" t="n">
-        <v>17.35125045465258</v>
+        <v>6.856155044598868</v>
       </c>
       <c r="E28" t="n">
-        <v>32.66116439788856</v>
+        <v>14.02176786698052</v>
       </c>
       <c r="F28" t="n">
-        <v>50.3083462942952</v>
+        <v>35.67206677356361</v>
       </c>
       <c r="G28" t="n">
-        <v>72.28134285153426</v>
+        <v>70.42317256806263</v>
       </c>
       <c r="H28" t="n">
-        <v>79.28975835829418</v>
+        <v>75.14440216531368</v>
       </c>
       <c r="I28" t="n">
-        <v>65.6208951190649</v>
+        <v>62.64731723166577</v>
       </c>
       <c r="J28" t="n">
-        <v>1352.591711887054</v>
+        <v>156.2786098202175</v>
       </c>
       <c r="K28" t="n">
-        <v>0.8877359490092992</v>
+        <v>0.8476714318806421</v>
       </c>
       <c r="L28" t="n">
-        <v>0.4065873633187877</v>
+        <v>0.3735002485285978</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Macia</t>
+          <t>RTx436</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>LI</t>
+          <t>WATER_LIMITED</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>39.13988985604275</v>
+        <v>29.73056845269678</v>
       </c>
       <c r="D29" t="n">
-        <v>12.81496781110322</v>
+        <v>11.66409296800297</v>
       </c>
       <c r="E29" t="n">
-        <v>25.97742883357299</v>
+        <v>20.69733071034987</v>
       </c>
       <c r="F29" t="n">
-        <v>41.48237750522887</v>
+        <v>35.98793986405775</v>
       </c>
       <c r="G29" t="n">
-        <v>69.38052821014878</v>
+        <v>67.17928560141446</v>
       </c>
       <c r="H29" t="n">
-        <v>77.90891938636777</v>
+        <v>75.58091486215024</v>
       </c>
       <c r="I29" t="n">
-        <v>61.74907230282105</v>
+        <v>61.90593403181506</v>
       </c>
       <c r="J29" t="n">
-        <v>502.814846663267</v>
+        <v>362.3327697206038</v>
       </c>
       <c r="K29" t="n">
-        <v>0.8644362489575507</v>
+        <v>0.8942139459626124</v>
       </c>
       <c r="L29" t="n">
-        <v>0.4207158136717439</v>
+        <v>0.3981485873090627</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Mota Maradi</t>
+          <t>RTx436</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>HI</t>
+          <t>WELL_WATERED</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>43.17788745777655</v>
+        <v>29.86914533180005</v>
       </c>
       <c r="D30" t="n">
-        <v>15.17206838174166</v>
+        <v>9.178755166994067</v>
       </c>
       <c r="E30" t="n">
-        <v>29.1749779197591</v>
+        <v>19.52395024939706</v>
       </c>
       <c r="F30" t="n">
-        <v>50.06428615191646</v>
+        <v>34.39611372509386</v>
       </c>
       <c r="G30" t="n">
-        <v>70.68532009632068</v>
+        <v>75.83837001727558</v>
       </c>
       <c r="H30" t="n">
-        <v>79.27938777684531</v>
+        <v>83.27473569657751</v>
       </c>
       <c r="I30" t="n">
-        <v>62.94714108383339</v>
+        <v>68.23052652612891</v>
       </c>
       <c r="J30" t="n">
-        <v>757.5634567133466</v>
+        <v>331.712031114921</v>
       </c>
       <c r="K30" t="n">
-        <v>0.8407934835086304</v>
+        <v>0.8941226636708751</v>
       </c>
       <c r="L30" t="n">
-        <v>0.4147296565512947</v>
+        <v>0.4158228806114717</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Mota Maradi</t>
+          <t>SC1154-14E</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>LI</t>
+          <t>WATER_LIMITED</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>28.08231177796655</v>
+        <v>29.83945499086384</v>
       </c>
       <c r="D31" t="n">
-        <v>8.972199768482753</v>
+        <v>8.924371027798157</v>
       </c>
       <c r="E31" t="n">
-        <v>18.52725577322465</v>
+        <v>19.381913009331</v>
       </c>
       <c r="F31" t="n">
-        <v>43.91647113318786</v>
+        <v>36.08818158961533</v>
       </c>
       <c r="G31" t="n">
-        <v>72.76082464550525</v>
+        <v>72.75221261460533</v>
       </c>
       <c r="H31" t="n">
-        <v>82.88669425436889</v>
+        <v>77.65260938707587</v>
       </c>
       <c r="I31" t="n">
-        <v>58.80336048591311</v>
+        <v>66.25140697908245</v>
       </c>
       <c r="J31" t="n">
-        <v>298.7343179054216</v>
+        <v>295.2002996971754</v>
       </c>
       <c r="K31" t="n">
-        <v>0.8533628179674594</v>
+        <v>0.8434499363872004</v>
       </c>
       <c r="L31" t="n">
-        <v>0.3988022598161229</v>
+        <v>0.3812732450570001</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>P898012</t>
+          <t>SC1154-14E</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>HI</t>
+          <t>WELL_WATERED</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>41.25756643227805</v>
+        <v>25.33911030949758</v>
       </c>
       <c r="D32" t="n">
-        <v>13.86947848683381</v>
+        <v>7.88905893750172</v>
       </c>
       <c r="E32" t="n">
-        <v>27.56352245955593</v>
+        <v>16.61408462349965</v>
       </c>
       <c r="F32" t="n">
-        <v>43.49765783090381</v>
+        <v>34.26422168413701</v>
       </c>
       <c r="G32" t="n">
-        <v>68.89173969159437</v>
+        <v>75.30008091350787</v>
       </c>
       <c r="H32" t="n">
-        <v>82.07800046635766</v>
+        <v>83.45377799450817</v>
       </c>
       <c r="I32" t="n">
-        <v>55.67161907169344</v>
+        <v>64.76278718980863</v>
       </c>
       <c r="J32" t="n">
-        <v>796.2902800767557</v>
+        <v>232.6462710761845</v>
       </c>
       <c r="K32" t="n">
-        <v>0.8462436762075644</v>
+        <v>0.8592042189345719</v>
       </c>
       <c r="L32" t="n">
-        <v>0.4453229707389046</v>
+        <v>0.4240723543824017</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>P898012</t>
+          <t>SC283</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>LI</t>
+          <t>WATER_LIMITED</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>43.00836126626741</v>
+        <v>30.20645733560387</v>
       </c>
       <c r="D33" t="n">
-        <v>14.77781177204684</v>
+        <v>10.28499143940093</v>
       </c>
       <c r="E33" t="n">
-        <v>28.89308651915712</v>
+        <v>20.2457243875024</v>
       </c>
       <c r="F33" t="n">
-        <v>40.40455590637302</v>
+        <v>35.88522900040197</v>
       </c>
       <c r="G33" t="n">
-        <v>66.94373407300914</v>
+        <v>65.07673071965515</v>
       </c>
       <c r="H33" t="n">
-        <v>77.02526552627215</v>
+        <v>79.80147960131113</v>
       </c>
       <c r="I33" t="n">
-        <v>56.56470959767393</v>
+        <v>47.32683797371279</v>
       </c>
       <c r="J33" t="n">
-        <v>788.1098828714917</v>
+        <v>362.5883186635451</v>
       </c>
       <c r="K33" t="n">
-        <v>0.7949383975802865</v>
+        <v>0.7964324569568791</v>
       </c>
       <c r="L33" t="n">
-        <v>0.4345235968230304</v>
+        <v>0.4202847681324841</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>R11018</t>
+          <t>SC283</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>HI</t>
+          <t>WELL_WATERED</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>31.86770561014626</v>
+        <v>26.63643466492107</v>
       </c>
       <c r="D34" t="n">
-        <v>10.8555876741274</v>
+        <v>8.897124933393535</v>
       </c>
       <c r="E34" t="n">
-        <v>21.36164664213683</v>
+        <v>17.7667797991573</v>
       </c>
       <c r="F34" t="n">
-        <v>43.85149815589613</v>
+        <v>34.47279020275946</v>
       </c>
       <c r="G34" t="n">
-        <v>75.3173491110533</v>
+        <v>74.05353010811419</v>
       </c>
       <c r="H34" t="n">
-        <v>82.63075528830392</v>
+        <v>82.47230652911358</v>
       </c>
       <c r="I34" t="n">
-        <v>66.27285143571463</v>
+        <v>64.71712691941654</v>
       </c>
       <c r="J34" t="n">
-        <v>473.4806422283228</v>
+        <v>249.1185803285085</v>
       </c>
       <c r="K34" t="n">
-        <v>0.8453086608651655</v>
+        <v>0.7720127878840561</v>
       </c>
       <c r="L34" t="n">
-        <v>0.4192175907456417</v>
+        <v>0.4195341528595365</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>RLBK1</t>
+          <t>SC35-14E</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>HI</t>
+          <t>WATER_LIMITED</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>48.28916955758243</v>
+        <v>33.18979974177751</v>
       </c>
       <c r="D35" t="n">
-        <v>15.3271207898829</v>
+        <v>12.09524135047889</v>
       </c>
       <c r="E35" t="n">
-        <v>31.80814517373267</v>
+        <v>22.6425205461282</v>
       </c>
       <c r="F35" t="n">
-        <v>46.16656014476522</v>
+        <v>39.35117518425803</v>
       </c>
       <c r="G35" t="n">
-        <v>61.17521519179321</v>
+        <v>70.24228443189702</v>
       </c>
       <c r="H35" t="n">
-        <v>80.12141031869852</v>
+        <v>84.07187813738717</v>
       </c>
       <c r="I35" t="n">
-        <v>41.77569086940909</v>
+        <v>51.27615923513633</v>
       </c>
       <c r="J35" t="n">
-        <v>801.0013304084779</v>
+        <v>486.6955312011954</v>
       </c>
       <c r="K35" t="n">
-        <v>0.830355178295432</v>
+        <v>0.8682309444021979</v>
       </c>
       <c r="L35" t="n">
-        <v>0.4152598457430018</v>
+        <v>0.4106446585079154</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>RLBK1</t>
+          <t>SC35-14E</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>LI</t>
+          <t>WELL_WATERED</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>44.86365789342982</v>
+        <v>29.11107035651989</v>
       </c>
       <c r="D36" t="n">
-        <v>15.6022339950692</v>
+        <v>10.57362606620073</v>
       </c>
       <c r="E36" t="n">
-        <v>30.2329459442495</v>
+        <v>19.84234821136031</v>
       </c>
       <c r="F36" t="n">
-        <v>46.41490707359214</v>
+        <v>37.13233477547179</v>
       </c>
       <c r="G36" t="n">
-        <v>66.99040478793493</v>
+        <v>73.92007353387436</v>
       </c>
       <c r="H36" t="n">
-        <v>79.80896545160142</v>
+        <v>83.80161787601941</v>
       </c>
       <c r="I36" t="n">
-        <v>56.65683639551589</v>
+        <v>57.03150412177781</v>
       </c>
       <c r="J36" t="n">
-        <v>827.2649056657403</v>
+        <v>367.2817970680488</v>
       </c>
       <c r="K36" t="n">
-        <v>0.8422006192676431</v>
+        <v>0.880476171741568</v>
       </c>
       <c r="L36" t="n">
-        <v>0.4142486814192672</v>
+        <v>0.3936622518460067</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>RTx430</t>
+          <t>SC56</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>HI</t>
+          <t>WATER_LIMITED</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>54.36790018802309</v>
+        <v>28.86931736735011</v>
       </c>
       <c r="D37" t="n">
-        <v>19.37529411387195</v>
+        <v>10.50823655222423</v>
       </c>
       <c r="E37" t="n">
-        <v>36.87159715094752</v>
+        <v>19.68877695978716</v>
       </c>
       <c r="F37" t="n">
-        <v>51.9046548401746</v>
+        <v>36.03285499791333</v>
       </c>
       <c r="G37" t="n">
-        <v>68.23615294657152</v>
+        <v>66.68423979333868</v>
       </c>
       <c r="H37" t="n">
-        <v>80.56590631577869</v>
+        <v>77.43004243745004</v>
       </c>
       <c r="I37" t="n">
-        <v>52.72229367518426</v>
+        <v>52.14082162001551</v>
       </c>
       <c r="J37" t="n">
-        <v>1581.417637106201</v>
+        <v>349.3355196501769</v>
       </c>
       <c r="K37" t="n">
-        <v>0.8583729691570454</v>
+        <v>0.9299638510256637</v>
       </c>
       <c r="L37" t="n">
-        <v>0.4294772975225301</v>
+        <v>0.3969485950824322</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>RTx430</t>
+          <t>SC56</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>LI</t>
+          <t>WELL_WATERED</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>44.5978779980104</v>
+        <v>24.2354380074673</v>
       </c>
       <c r="D38" t="n">
-        <v>13.95936103242849</v>
+        <v>8.537634381023302</v>
       </c>
       <c r="E38" t="n">
-        <v>29.27861951521944</v>
+        <v>16.38653619424531</v>
       </c>
       <c r="F38" t="n">
-        <v>42.6578136322447</v>
+        <v>31.37312487427261</v>
       </c>
       <c r="G38" t="n">
-        <v>68.28119204396025</v>
+        <v>75.79649645851396</v>
       </c>
       <c r="H38" t="n">
-        <v>80.06318204901119</v>
+        <v>86.06223302131248</v>
       </c>
       <c r="I38" t="n">
-        <v>54.59130422721699</v>
+        <v>64.65945230764113</v>
       </c>
       <c r="J38" t="n">
-        <v>769.4037636391357</v>
+        <v>144.1475956868768</v>
       </c>
       <c r="K38" t="n">
-        <v>0.8293259706556083</v>
+        <v>0.8024681540977946</v>
       </c>
       <c r="L38" t="n">
-        <v>0.416835719293345</v>
+        <v>0.3983809074517747</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>RTx436</t>
+          <t>Tx7000</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>HI</t>
+          <t>WATER_LIMITED</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>38.74056514589586</v>
+        <v>34.36707038781527</v>
       </c>
       <c r="D39" t="n">
-        <v>13.2749515958681</v>
+        <v>11.48602606483617</v>
       </c>
       <c r="E39" t="n">
-        <v>26.00775837088198</v>
+        <v>22.92654822632572</v>
       </c>
       <c r="F39" t="n">
-        <v>46.88362221583618</v>
+        <v>39.35117518425803</v>
       </c>
       <c r="G39" t="n">
-        <v>71.16541322486377</v>
+        <v>71.26926305485745</v>
       </c>
       <c r="H39" t="n">
-        <v>81.27500277778792</v>
+        <v>81.11871455446972</v>
       </c>
       <c r="I39" t="n">
-        <v>61.06914104835653</v>
+        <v>62.2037967252273</v>
       </c>
       <c r="J39" t="n">
-        <v>666.2911176263242</v>
+        <v>500.274109406092</v>
       </c>
       <c r="K39" t="n">
-        <v>0.8646485825441372</v>
+        <v>0.7991656279450993</v>
       </c>
       <c r="L39" t="n">
-        <v>0.4178530026957571</v>
+        <v>0.4164194812613107</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>RTx436</t>
+          <t>Tx7000</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>LI</t>
+          <t>WELL_WATERED</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>43.59031789980684</v>
+        <v>27.73369093708321</v>
       </c>
       <c r="D40" t="n">
-        <v>14.93522722484211</v>
+        <v>8.200745615317999</v>
       </c>
       <c r="E40" t="n">
-        <v>29.26277256232447</v>
+        <v>17.9672182762006</v>
       </c>
       <c r="F40" t="n">
-        <v>47.84649644043431</v>
+        <v>34.67875291328256</v>
       </c>
       <c r="G40" t="n">
-        <v>75.3998878670251</v>
+        <v>78.32371682495477</v>
       </c>
       <c r="H40" t="n">
-        <v>82.12217468320505</v>
+        <v>86.94285707346648</v>
       </c>
       <c r="I40" t="n">
-        <v>66.61096125737657</v>
+        <v>70.89721082061851</v>
       </c>
       <c r="J40" t="n">
-        <v>797.0463737750106</v>
+        <v>275.3944255564037</v>
       </c>
       <c r="K40" t="n">
-        <v>0.8621641734028588</v>
+        <v>0.8578979065324056</v>
       </c>
       <c r="L40" t="n">
-        <v>0.4116632859154148</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>SC1103</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>HI</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>46.64878822527751</v>
-      </c>
-      <c r="D41" t="n">
-        <v>16.94647713685882</v>
-      </c>
-      <c r="E41" t="n">
-        <v>31.79763268106817</v>
-      </c>
-      <c r="F41" t="n">
-        <v>56.64220986853491</v>
-      </c>
-      <c r="G41" t="n">
-        <v>74.09112763703791</v>
-      </c>
-      <c r="H41" t="n">
-        <v>80.9194452134568</v>
-      </c>
-      <c r="I41" t="n">
-        <v>66.49057510127115</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1163.026328767588</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.868328219684276</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0.4133330985954566</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>SC1103</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>LI</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>44.17191100136601</v>
-      </c>
-      <c r="D42" t="n">
-        <v>16.27524428998375</v>
-      </c>
-      <c r="E42" t="n">
-        <v>30.22357764567488</v>
-      </c>
-      <c r="F42" t="n">
-        <v>46.75173853622555</v>
-      </c>
-      <c r="G42" t="n">
-        <v>73.08093389547993</v>
-      </c>
-      <c r="H42" t="n">
-        <v>81.55824486263604</v>
-      </c>
-      <c r="I42" t="n">
-        <v>63.48535105943307</v>
-      </c>
-      <c r="J42" t="n">
-        <v>679.6823771947638</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.8611340911122592</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0.3954325484994377</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>SC1154-14E</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>HI</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>49.31710435018582</v>
-      </c>
-      <c r="D43" t="n">
-        <v>18.93663250128164</v>
-      </c>
-      <c r="E43" t="n">
-        <v>34.12686842573373</v>
-      </c>
-      <c r="F43" t="n">
-        <v>52.12991939704656</v>
-      </c>
-      <c r="G43" t="n">
-        <v>69.89405407425113</v>
-      </c>
-      <c r="H43" t="n">
-        <v>79.99065671858324</v>
-      </c>
-      <c r="I43" t="n">
-        <v>60.42877264829786</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1424.566710678409</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.8447487379042629</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0.4644391694657699</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>SC1154-14E</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>LI</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>40.46473842333545</v>
-      </c>
-      <c r="D44" t="n">
-        <v>14.09915546571272</v>
-      </c>
-      <c r="E44" t="n">
-        <v>27.28194694452409</v>
-      </c>
-      <c r="F44" t="n">
-        <v>46.54792730500289</v>
-      </c>
-      <c r="G44" t="n">
-        <v>69.81517439711807</v>
-      </c>
-      <c r="H44" t="n">
-        <v>79.78576576986281</v>
-      </c>
-      <c r="I44" t="n">
-        <v>58.13463165511914</v>
-      </c>
-      <c r="J44" t="n">
-        <v>888.1726679109169</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.8798114039167738</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0.4480685815903316</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>SC1345</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>HI</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>51.80771573737669</v>
-      </c>
-      <c r="D45" t="n">
-        <v>18.54318113963128</v>
-      </c>
-      <c r="E45" t="n">
-        <v>35.17544843850398</v>
-      </c>
-      <c r="F45" t="n">
-        <v>53.52613940292456</v>
-      </c>
-      <c r="G45" t="n">
-        <v>72.7056104706807</v>
-      </c>
-      <c r="H45" t="n">
-        <v>81.77307658320248</v>
-      </c>
-      <c r="I45" t="n">
-        <v>62.1832322586558</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1478.466297319976</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.8639529149877739</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0.3921961409378161</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>SC1345</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>LI</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>45.46232518090137</v>
-      </c>
-      <c r="D46" t="n">
-        <v>15.85332719916395</v>
-      </c>
-      <c r="E46" t="n">
-        <v>30.65782619003266</v>
-      </c>
-      <c r="F46" t="n">
-        <v>53.44377981340594</v>
-      </c>
-      <c r="G46" t="n">
-        <v>73.6667083686616</v>
-      </c>
-      <c r="H46" t="n">
-        <v>82.08549115992292</v>
-      </c>
-      <c r="I46" t="n">
-        <v>63.37500220575827</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1085.231226406568</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.8433009052655525</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0.4117498407617105</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>SC265</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>HI</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>50.50753997853701</v>
-      </c>
-      <c r="D47" t="n">
-        <v>17.33482761050402</v>
-      </c>
-      <c r="E47" t="n">
-        <v>33.92118379452051</v>
-      </c>
-      <c r="F47" t="n">
-        <v>48.91723518674322</v>
-      </c>
-      <c r="G47" t="n">
-        <v>68.44312711386284</v>
-      </c>
-      <c r="H47" t="n">
-        <v>76.60151111871102</v>
-      </c>
-      <c r="I47" t="n">
-        <v>57.71643735232979</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1386.58265526693</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.8107226074596473</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0.3814007125826702</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>SC265</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>LI</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>51.8805987807801</v>
-      </c>
-      <c r="D48" t="n">
-        <v>18.30415316513664</v>
-      </c>
-      <c r="E48" t="n">
-        <v>35.09237597295837</v>
-      </c>
-      <c r="F48" t="n">
-        <v>44.37986397904299</v>
-      </c>
-      <c r="G48" t="n">
-        <v>64.70367600935083</v>
-      </c>
-      <c r="H48" t="n">
-        <v>75.12313217286516</v>
-      </c>
-      <c r="I48" t="n">
-        <v>51.91612253571915</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1143.33714353543</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.799287404002977</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0.3938143292234484</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>SC283</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>HI</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>54.37779467790004</v>
-      </c>
-      <c r="D49" t="n">
-        <v>19.2924834168101</v>
-      </c>
-      <c r="E49" t="n">
-        <v>36.83513904735507</v>
-      </c>
-      <c r="F49" t="n">
-        <v>45.99059953438905</v>
-      </c>
-      <c r="G49" t="n">
-        <v>62.93195917690389</v>
-      </c>
-      <c r="H49" t="n">
-        <v>81.35826396916441</v>
-      </c>
-      <c r="I49" t="n">
-        <v>41.77569086940909</v>
-      </c>
-      <c r="J49" t="n">
-        <v>1381.945932813989</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.7933730621152677</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0.4268862575453984</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>SC283</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>LI</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>48.65518581696605</v>
-      </c>
-      <c r="D50" t="n">
-        <v>16.12303976170654</v>
-      </c>
-      <c r="E50" t="n">
-        <v>32.38911278933629</v>
-      </c>
-      <c r="F50" t="n">
-        <v>48.16447413733575</v>
-      </c>
-      <c r="G50" t="n">
-        <v>69.49873758458013</v>
-      </c>
-      <c r="H50" t="n">
-        <v>80.45557292782536</v>
-      </c>
-      <c r="I50" t="n">
-        <v>58.17854985920072</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1051.536155049423</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.8483003187924375</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0.4156841350251976</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>SC348</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>HI</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>30.19698151926783</v>
-      </c>
-      <c r="D51" t="n">
-        <v>10.83864963986874</v>
-      </c>
-      <c r="E51" t="n">
-        <v>20.51781557956829</v>
-      </c>
-      <c r="F51" t="n">
-        <v>42.88262033604007</v>
-      </c>
-      <c r="G51" t="n">
-        <v>61.07337653793869</v>
-      </c>
-      <c r="H51" t="n">
-        <v>75.09615915585107</v>
-      </c>
-      <c r="I51" t="n">
-        <v>43.68921796736181</v>
-      </c>
-      <c r="J51" t="n">
-        <v>353.8077277102201</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.853056294086396</v>
-      </c>
-      <c r="L51" t="n">
-        <v>0.3911455277402018</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>SC348</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>LI</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>41.98623430391174</v>
-      </c>
-      <c r="D52" t="n">
-        <v>15.14592648881361</v>
-      </c>
-      <c r="E52" t="n">
-        <v>28.56608039636268</v>
-      </c>
-      <c r="F52" t="n">
-        <v>51.33499286181803</v>
-      </c>
-      <c r="G52" t="n">
-        <v>71.5710471480714</v>
-      </c>
-      <c r="H52" t="n">
-        <v>84.31617202244045</v>
-      </c>
-      <c r="I52" t="n">
-        <v>56.53297271039537</v>
-      </c>
-      <c r="J52" t="n">
-        <v>643.2722494148845</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.8185824439719804</v>
-      </c>
-      <c r="L52" t="n">
-        <v>0.4293311573568364</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>SC35-14E</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>HI</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>51.88742866128095</v>
-      </c>
-      <c r="D53" t="n">
-        <v>19.456915067488</v>
-      </c>
-      <c r="E53" t="n">
-        <v>35.67217186438448</v>
-      </c>
-      <c r="F53" t="n">
-        <v>55.09252139006698</v>
-      </c>
-      <c r="G53" t="n">
-        <v>66.6319949598376</v>
-      </c>
-      <c r="H53" t="n">
-        <v>80.39484337467883</v>
-      </c>
-      <c r="I53" t="n">
-        <v>51.23391948729318</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1469.394385684383</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.8870582838894311</v>
-      </c>
-      <c r="L53" t="n">
-        <v>0.4262290275886596</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>SC35-14E</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>LI</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>41.95136245204385</v>
-      </c>
-      <c r="D54" t="n">
-        <v>13.86799552348493</v>
-      </c>
-      <c r="E54" t="n">
-        <v>27.90967898776438</v>
-      </c>
-      <c r="F54" t="n">
-        <v>46.88973865763689</v>
-      </c>
-      <c r="G54" t="n">
-        <v>67.31179130278136</v>
-      </c>
-      <c r="H54" t="n">
-        <v>76.57284516451165</v>
-      </c>
-      <c r="I54" t="n">
-        <v>54.32863068171883</v>
-      </c>
-      <c r="J54" t="n">
-        <v>892.460079110546</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.8456495442214512</v>
-      </c>
-      <c r="L54" t="n">
-        <v>0.4046451481906604</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>SC56</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>HI</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>45.46501192155982</v>
-      </c>
-      <c r="D55" t="n">
-        <v>17.0617266822372</v>
-      </c>
-      <c r="E55" t="n">
-        <v>31.26336930189852</v>
-      </c>
-      <c r="F55" t="n">
-        <v>48.46224305949218</v>
-      </c>
-      <c r="G55" t="n">
-        <v>66.58380193575087</v>
-      </c>
-      <c r="H55" t="n">
-        <v>81.11152878561276</v>
-      </c>
-      <c r="I55" t="n">
-        <v>49.66919214411351</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1267.334110613682</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.7933730621152677</v>
-      </c>
-      <c r="L55" t="n">
-        <v>0.450412503152945</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>SC56</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>LI</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>51.01455961476822</v>
-      </c>
-      <c r="D56" t="n">
-        <v>16.78286507975445</v>
-      </c>
-      <c r="E56" t="n">
-        <v>33.89871234726132</v>
-      </c>
-      <c r="F56" t="n">
-        <v>42.830221089536</v>
-      </c>
-      <c r="G56" t="n">
-        <v>60.87898576645873</v>
-      </c>
-      <c r="H56" t="n">
-        <v>75.09615915585107</v>
-      </c>
-      <c r="I56" t="n">
-        <v>51.45284772342101</v>
-      </c>
-      <c r="J56" t="n">
-        <v>1105.502197281903</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.833350092406128</v>
-      </c>
-      <c r="L56" t="n">
-        <v>0.4016696437581932</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>SC971</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>HI</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>37.17641638341832</v>
-      </c>
-      <c r="D57" t="n">
-        <v>12.69738093471131</v>
-      </c>
-      <c r="E57" t="n">
-        <v>24.93689865906482</v>
-      </c>
-      <c r="F57" t="n">
-        <v>48.80977040845431</v>
-      </c>
-      <c r="G57" t="n">
-        <v>70.24565574447861</v>
-      </c>
-      <c r="H57" t="n">
-        <v>80.54588229527033</v>
-      </c>
-      <c r="I57" t="n">
-        <v>57.07064220319874</v>
-      </c>
-      <c r="J57" t="n">
-        <v>640.9422579273129</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.8598007366513509</v>
-      </c>
-      <c r="L57" t="n">
-        <v>0.4326225625127993</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>SC971</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>LI</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>41.54621667773587</v>
-      </c>
-      <c r="D58" t="n">
-        <v>14.04565664066074</v>
-      </c>
-      <c r="E58" t="n">
-        <v>27.7959366591983</v>
-      </c>
-      <c r="F58" t="n">
-        <v>47.14976547747093</v>
-      </c>
-      <c r="G58" t="n">
-        <v>69.89952897230658</v>
-      </c>
-      <c r="H58" t="n">
-        <v>79.40651547294145</v>
-      </c>
-      <c r="I58" t="n">
-        <v>59.17706419225107</v>
-      </c>
-      <c r="J58" t="n">
-        <v>725.7569493907946</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.8467780746110888</v>
-      </c>
-      <c r="L58" t="n">
-        <v>0.4064959308508624</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Segaolane</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>HI</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>41.2983709820391</v>
-      </c>
-      <c r="D59" t="n">
-        <v>15.18985340203243</v>
-      </c>
-      <c r="E59" t="n">
-        <v>28.24411219203577</v>
-      </c>
-      <c r="F59" t="n">
-        <v>46.82792427633945</v>
-      </c>
-      <c r="G59" t="n">
-        <v>73.77209990389933</v>
-      </c>
-      <c r="H59" t="n">
-        <v>81.71649978143397</v>
-      </c>
-      <c r="I59" t="n">
-        <v>64.27670765167647</v>
-      </c>
-      <c r="J59" t="n">
-        <v>808.6326434907555</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.8459678967724932</v>
-      </c>
-      <c r="L59" t="n">
-        <v>0.4227035080707671</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Segaolane</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>LI</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>39.7256783103616</v>
-      </c>
-      <c r="D60" t="n">
-        <v>13.62807185501731</v>
-      </c>
-      <c r="E60" t="n">
-        <v>26.67687508268946</v>
-      </c>
-      <c r="F60" t="n">
-        <v>45.41188356688552</v>
-      </c>
-      <c r="G60" t="n">
-        <v>71.60180084827874</v>
-      </c>
-      <c r="H60" t="n">
-        <v>81.11170418886722</v>
-      </c>
-      <c r="I60" t="n">
-        <v>60.09598870941175</v>
-      </c>
-      <c r="J60" t="n">
-        <v>683.5625737666389</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.8679741417414647</v>
-      </c>
-      <c r="L60" t="n">
-        <v>0.4221285107524915</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Tx7000</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>HI</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>40.02148098873063</v>
-      </c>
-      <c r="D61" t="n">
-        <v>14.07035203827962</v>
-      </c>
-      <c r="E61" t="n">
-        <v>27.04591651350512</v>
-      </c>
-      <c r="F61" t="n">
-        <v>47.10330224370998</v>
-      </c>
-      <c r="G61" t="n">
-        <v>72.51427957519503</v>
-      </c>
-      <c r="H61" t="n">
-        <v>83.06344811526408</v>
-      </c>
-      <c r="I61" t="n">
-        <v>62.2921878345475</v>
-      </c>
-      <c r="J61" t="n">
-        <v>670.7931920787561</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8746408230933458</v>
-      </c>
-      <c r="L61" t="n">
-        <v>0.4198183072127943</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Tx7000</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>LI</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>38.21448852001708</v>
-      </c>
-      <c r="D62" t="n">
-        <v>13.52107843198478</v>
-      </c>
-      <c r="E62" t="n">
-        <v>25.86778347600093</v>
-      </c>
-      <c r="F62" t="n">
-        <v>47.65418647808045</v>
-      </c>
-      <c r="G62" t="n">
-        <v>75.28667540541691</v>
-      </c>
-      <c r="H62" t="n">
-        <v>82.58990306522048</v>
-      </c>
-      <c r="I62" t="n">
-        <v>66.61413574215717</v>
-      </c>
-      <c r="J62" t="n">
-        <v>797.429171536489</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.8657145872060287</v>
-      </c>
-      <c r="L62" t="n">
-        <v>0.4075658303191607</v>
+        <v>0.422996675440277</v>
       </c>
     </row>
   </sheetData>
